--- a/Waste and Recycling Trends in Singapore/output/3-4_energy_conversions.xlsx
+++ b/Waste and Recycling Trends in Singapore/output/3-4_energy_conversions.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67a9b203362911a9/Documents/GitHub/02-Personal-Projects/WIP/Recycled Energy Savings in Singapore/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_23F921EDC5B34A1F372D4C2A75CA59745216291C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE299ABC-BB11-4F73-8E18-B5CB3E302D12}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="3630" windowWidth="21570" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$101</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -169,8 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,25 +224,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +268,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -323,7 +302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -358,10 +336,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,29 +511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -632,7 +594,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -643,7 +605,7 @@
         <v>75800</v>
       </c>
       <c r="D3">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E3">
         <v>18100</v>
@@ -670,7 +632,7 @@
         <v>3032000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -708,7 +670,7 @@
         <v>1438200</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -719,7 +681,7 @@
         <v>39100</v>
       </c>
       <c r="D5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5">
         <v>540800</v>
@@ -746,7 +708,7 @@
         <v>625600</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -784,7 +746,7 @@
         <v>5128200</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -822,7 +784,7 @@
         <v>1185600</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -833,7 +795,7 @@
         <v>4900</v>
       </c>
       <c r="D8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8">
         <v>68700</v>
@@ -860,7 +822,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -898,7 +860,7 @@
         <v>5718900</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -936,7 +898,7 @@
         <v>2872000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -974,7 +936,7 @@
         <v>1169820</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1012,7 +974,7 @@
         <v>5945500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1050,7 +1012,7 @@
         <v>1376000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1088,7 +1050,7 @@
         <v>1348380</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1126,7 +1088,7 @@
         <v>2988000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1126,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1164,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1202,7 @@
         <v>2828000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1240,7 @@
         <v>1183320</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1316,7 +1278,7 @@
         <v>1244800</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1354,7 +1316,7 @@
         <v>6285400</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1392,7 +1354,7 @@
         <v>3024000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1430,7 +1392,7 @@
         <v>6809000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1468,7 +1430,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1506,7 +1468,7 @@
         <v>1202400</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1544,7 +1506,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1582,7 +1544,7 @@
         <v>6694600</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1620,7 +1582,7 @@
         <v>979200</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +1593,7 @@
         <v>735000</v>
       </c>
       <c r="D29">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E29">
         <v>49800</v>
@@ -1658,7 +1620,7 @@
         <v>1323000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1658,7 @@
         <v>2880000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1734,7 +1696,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1772,7 +1734,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1810,7 +1772,7 @@
         <v>6316200</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +1810,7 @@
         <v>964800</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1886,7 +1848,7 @@
         <v>1451160</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1924,7 +1886,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1924,7 @@
         <v>8120200</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2000,7 +1962,7 @@
         <v>1249600</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2011,7 +1973,7 @@
         <v>1127500</v>
       </c>
       <c r="D39">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E39">
         <v>67100</v>
@@ -2038,7 +2000,7 @@
         <v>2029500</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2076,7 +2038,7 @@
         <v>2924000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2114,7 +2076,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +2087,7 @@
         <v>765000</v>
       </c>
       <c r="D42">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E42">
         <v>603200</v>
@@ -2152,7 +2114,7 @@
         <v>8415000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2190,7 +2152,7 @@
         <v>1232000</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2228,7 +2190,7 @@
         <v>2108880</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2266,7 +2228,7 @@
         <v>4112000</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2277,7 +2239,7 @@
         <v>21400</v>
       </c>
       <c r="D46">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="E46">
         <v>51400</v>
@@ -2304,7 +2266,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -2315,7 +2277,7 @@
         <v>696700</v>
       </c>
       <c r="D47">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E47">
         <v>555300</v>
@@ -2342,7 +2304,7 @@
         <v>7663700</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2380,7 +2342,7 @@
         <v>1313600</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2418,7 +2380,7 @@
         <v>2396160</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2456,7 +2418,7 @@
         <v>3892000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2494,7 +2456,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2532,7 +2494,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2570,7 +2532,7 @@
         <v>2464560</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -2608,7 +2570,7 @@
         <v>1457600</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2646,7 +2608,7 @@
         <v>7473400</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2684,7 +2646,7 @@
         <v>4560000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2722,7 +2684,7 @@
         <v>2500020</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2760,7 +2722,7 @@
         <v>7111500</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2798,7 +2760,7 @@
         <v>1280000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2836,7 +2798,7 @@
         <v>3788000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2874,7 +2836,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2912,7 +2874,7 @@
         <v>6640700</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2950,7 +2912,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2988,7 +2950,7 @@
         <v>6416000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3026,7 +2988,7 @@
         <v>2399940</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -3037,7 +2999,7 @@
         <v>57800</v>
       </c>
       <c r="D66">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E66">
         <v>766800</v>
@@ -3064,7 +3026,7 @@
         <v>924800</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -3075,7 +3037,7 @@
         <v>59500</v>
       </c>
       <c r="D67">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E67">
         <v>762700</v>
@@ -3102,7 +3064,7 @@
         <v>952000</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3140,7 +3102,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -3178,7 +3140,7 @@
         <v>3836000</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -3216,7 +3178,7 @@
         <v>2432700</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -3254,7 +3216,7 @@
         <v>6678100</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3292,7 +3254,7 @@
         <v>2467800</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -3330,7 +3292,7 @@
         <v>6259000</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3368,7 +3330,7 @@
         <v>832000</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -3406,7 +3368,7 @@
         <v>3680000</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -3444,7 +3406,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -3482,7 +3444,7 @@
         <v>2268000</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -3493,7 +3455,7 @@
         <v>586000</v>
       </c>
       <c r="D78">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E78">
         <v>467000</v>
@@ -3520,7 +3482,7 @@
         <v>6446000</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3558,7 +3520,7 @@
         <v>656000</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -3596,7 +3558,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -3634,7 +3596,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -3672,7 +3634,7 @@
         <v>2286000</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -3710,7 +3672,7 @@
         <v>4939000</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -3748,7 +3710,7 @@
         <v>592000</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -3786,7 +3748,7 @@
         <v>4960000</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -3797,7 +3759,7 @@
         <v>11000</v>
       </c>
       <c r="D86">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="E86">
         <v>64000</v>
@@ -3824,7 +3786,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -3862,7 +3824,7 @@
         <v>4752000</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -3900,7 +3862,7 @@
         <v>1674000</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -3938,7 +3900,7 @@
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -3976,7 +3938,7 @@
         <v>2920000</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -4014,7 +3976,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -4052,7 +4014,7 @@
         <v>4807000</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -4090,7 +4052,7 @@
         <v>2350800</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -4128,7 +4090,7 @@
         <v>928000</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -4166,7 +4128,7 @@
         <v>3480000</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -4204,7 +4166,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -4242,7 +4204,7 @@
         <v>2395800</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -4280,7 +4242,7 @@
         <v>4334000</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -4318,7 +4280,7 @@
         <v>912000</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -4356,7 +4318,7 @@
         <v>3640000</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -4367,7 +4329,7 @@
         <v>11000</v>
       </c>
       <c r="D101">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="E101">
         <v>63000</v>
@@ -4395,13 +4357,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L101" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="glass"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>